--- a/StructureDefinition-PacienteHackaton.xlsx
+++ b/StructureDefinition-PacienteHackaton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T21:09:05-04:00</t>
+    <t>2023-07-04T17:18:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -443,7 +443,7 @@
     <t>Identidad de Género</t>
   </si>
   <si>
-    <t xml:space="preserve">Extensión para dato es de autoidentificación, por lo tanto, es una información que la persona entrega y el modelo de atención debe garantizar las condiciones y los mecanismos de privacidad y confidencialidad a través de un protocolo de aplicación local </t>
+    <t>Extensión para dato es de autoidentificación, por lo tanto, es una información que la persona entrega y el modelo de atención debe garantizar las condiciones y los mecanismos de privacidad y confidencialidad a través de un protocolo de aplicación local</t>
   </si>
   <si>
     <t>Patient.extension:IdGenero.id</t>
@@ -1831,10 +1831,6 @@
   </si>
   <si>
     <t xml:space="preserve">careProvider
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
@@ -12724,16 +12720,16 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12801,7 +12797,7 @@
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>37</v>
@@ -12810,7 +12806,7 @@
         <v>111</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>37</v>
@@ -12818,10 +12814,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12936,10 +12932,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13056,10 +13052,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13085,13 +13081,13 @@
         <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13141,16 +13137,16 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>596</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>597</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>58</v>
@@ -13176,10 +13172,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13205,13 +13201,13 @@
         <v>60</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13240,28 +13236,28 @@
         <v>179</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>603</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>604</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>35</v>
@@ -13296,10 +13292,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13325,13 +13321,13 @@
         <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13381,16 +13377,16 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>58</v>
@@ -13399,7 +13395,7 @@
         <v>37</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>37</v>
@@ -13416,10 +13412,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13445,13 +13441,13 @@
         <v>194</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13501,7 +13497,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>35</v>
@@ -13510,7 +13506,7 @@
         <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>58</v>
@@ -13536,10 +13532,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13565,16 +13561,16 @@
         <v>211</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13623,7 +13619,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>35</v>
@@ -13647,7 +13643,7 @@
         <v>37</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>37</v>
@@ -13658,10 +13654,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13687,16 +13683,16 @@
         <v>503</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>37</v>
@@ -13745,7 +13741,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>35</v>
@@ -13763,7 +13759,7 @@
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>37</v>
@@ -13780,10 +13776,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13898,10 +13894,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14018,10 +14014,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14140,10 +14136,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14166,16 +14162,16 @@
         <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14225,7 +14221,7 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>46</v>
@@ -14252,7 +14248,7 @@
         <v>111</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>37</v>
@@ -14260,10 +14256,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14289,10 +14285,10 @@
         <v>66</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14322,11 +14318,11 @@
         <v>70</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>641</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>37</v>
       </c>
@@ -14343,7 +14339,7 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>46</v>
@@ -14361,7 +14357,7 @@
         <v>37</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-PacienteHackaton.xlsx
+++ b/StructureDefinition-PacienteHackaton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="643">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T17:18:33-04:00</t>
+    <t>2023-07-19T16:02:56-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Paciente a ser usado en la Hackatón HLF</t>
+    <t>Paciente a ser usado en la Hackatón HLF. Contiene datos mínimos especificados para cumplir normativas nacionales</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -177,6 +177,9 @@
     <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
   </si>
   <si>
+    <t>Pac007</t>
+  </si>
+  <si>
     <t>Resource.id</t>
   </si>
   <si>
@@ -317,7 +320,7 @@
     <t>Extension</t>
   </si>
   <si>
-    <t>Sexo declarado como la identificación sexual declarada por la persona</t>
+    <t>Sexo declarado como la identificación sexual con la cual se identifica la persona</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -347,7 +350,7 @@
     <t>Sexo biológico al nacer</t>
   </si>
   <si>
-    <t>Extensión de Sexdo biológico al nacer para Chile</t>
+    <t>Extensión de Sexo Biológico al nacer.</t>
   </si>
   <si>
     <t>Patient.extension:SexoNac.id</t>
@@ -414,7 +417,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t>Sexo biológico de  nacimiento</t>
+    <t>Sexo biológico determinado al nacer</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
@@ -744,7 +747,7 @@
     <t>Nombre Registrado, y nombre social</t>
   </si>
   <si>
-    <t>Nombre completo del paciente, se agrega pa posibilid de agregar el nombre social</t>
+    <t>Nombre completo del paciente, se define la posibilid de agregar el nombre social</t>
   </si>
   <si>
     <t>A patient may have multiple names with different uses or applicable periods. For animals, the name is a "HumanName" in the sense that is assigned and used by humans and has the same patterns. Animal names may be communicated as given names, and optionally may include a family name.</t>
@@ -784,7 +787,7 @@
     <t>Nombre Social de Paciente</t>
   </si>
   <si>
-    <t>Esta extensión permite agregar un nombre social al paciente</t>
+    <t>Esta extensión permite agregar un nombre social al paciente. Se define como nombre social aquel con el cual el/la paciente se reconoce a si mismo/a</t>
   </si>
   <si>
     <t>Patient.name.extension:SegundoApellido</t>
@@ -2544,7 +2547,7 @@
         <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="T2" t="s" s="2">
         <v>37</v>
@@ -2583,7 +2586,7 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
@@ -2618,10 +2621,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2644,13 +2647,13 @@
         <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2701,7 +2704,7 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>35</v>
@@ -2713,7 +2716,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2736,10 +2739,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2762,16 +2765,16 @@
         <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2821,7 +2824,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
@@ -2833,7 +2836,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2856,10 +2859,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2882,16 +2885,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2917,13 +2920,13 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>37</v>
@@ -2941,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
@@ -2953,7 +2956,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2976,14 +2979,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3002,16 +3005,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3061,7 +3064,7 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>35</v>
@@ -3070,16 +3073,16 @@
         <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -3096,14 +3099,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3122,16 +3125,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3181,7 +3184,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -3190,7 +3193,7 @@
         <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>37</v>
@@ -3199,7 +3202,7 @@
         <v>37</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -3216,10 +3219,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3242,13 +3245,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3287,17 +3290,17 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -3309,7 +3312,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3332,13 +3335,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -3360,13 +3363,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3417,7 +3420,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -3429,7 +3432,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3452,10 +3455,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3481,10 +3484,10 @@
         <v>48</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3535,7 +3538,7 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>35</v>
@@ -3544,7 +3547,7 @@
         <v>46</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>37</v>
@@ -3553,7 +3556,7 @@
         <v>37</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>37</v>
@@ -3570,10 +3573,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3596,13 +3599,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3641,19 +3644,19 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -3665,7 +3668,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -3688,10 +3691,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3714,16 +3717,16 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3731,7 +3734,7 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s" s="2">
         <v>37</v>
@@ -3773,7 +3776,7 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>46</v>
@@ -3791,7 +3794,7 @@
         <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -3808,10 +3811,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3834,13 +3837,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3867,11 +3870,11 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>37</v>
@@ -3889,7 +3892,7 @@
         <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>35</v>
@@ -3898,16 +3901,16 @@
         <v>46</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3924,13 +3927,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>37</v>
@@ -3952,13 +3955,13 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4009,7 +4012,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -4021,7 +4024,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -4044,10 +4047,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4073,10 +4076,10 @@
         <v>48</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4127,7 +4130,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>35</v>
@@ -4136,7 +4139,7 @@
         <v>46</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>37</v>
@@ -4145,7 +4148,7 @@
         <v>37</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>37</v>
@@ -4162,10 +4165,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4188,13 +4191,13 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4233,19 +4236,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -4257,7 +4260,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -4280,10 +4283,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4306,16 +4309,16 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4323,7 +4326,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>37</v>
@@ -4365,7 +4368,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>46</v>
@@ -4383,7 +4386,7 @@
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>37</v>
@@ -4400,10 +4403,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4426,13 +4429,13 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4459,11 +4462,11 @@
         <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>37</v>
@@ -4481,7 +4484,7 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>35</v>
@@ -4490,16 +4493,16 @@
         <v>46</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>37</v>
@@ -4516,14 +4519,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4542,19 +4545,19 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4603,7 +4606,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4615,13 +4618,13 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>37</v>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4664,17 +4667,17 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4723,7 +4726,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4735,22 +4738,22 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>37</v>
@@ -4758,10 +4761,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4787,10 +4790,10 @@
         <v>48</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4841,7 +4844,7 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>35</v>
@@ -4850,7 +4853,7 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>37</v>
@@ -4859,7 +4862,7 @@
         <v>37</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>37</v>
@@ -4876,14 +4879,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4902,16 +4905,16 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4949,19 +4952,19 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4973,13 +4976,13 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -4996,10 +4999,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5022,19 +5025,19 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -5044,7 +5047,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -5059,11 +5062,11 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
@@ -5081,7 +5084,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>35</v>
@@ -5093,13 +5096,13 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
@@ -5108,7 +5111,7 @@
         <v>37</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>37</v>
@@ -5116,10 +5119,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5142,19 +5145,19 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -5179,13 +5182,13 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>37</v>
@@ -5203,7 +5206,7 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>35</v>
@@ -5215,13 +5218,13 @@
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>37</v>
@@ -5230,7 +5233,7 @@
         <v>37</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>37</v>
@@ -5238,10 +5241,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5264,19 +5267,19 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -5289,7 +5292,7 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>37</v>
@@ -5325,7 +5328,7 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>35</v>
@@ -5337,13 +5340,13 @@
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>37</v>
@@ -5352,7 +5355,7 @@
         <v>37</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>37</v>
@@ -5360,10 +5363,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5386,16 +5389,16 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5409,7 +5412,7 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>37</v>
@@ -5445,7 +5448,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>35</v>
@@ -5454,16 +5457,16 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>37</v>
@@ -5472,7 +5475,7 @@
         <v>37</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>37</v>
@@ -5480,10 +5483,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5506,13 +5509,13 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5563,7 +5566,7 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>35</v>
@@ -5575,13 +5578,13 @@
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>37</v>
@@ -5590,7 +5593,7 @@
         <v>37</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>37</v>
@@ -5598,10 +5601,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5624,16 +5627,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5683,7 +5686,7 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>35</v>
@@ -5695,13 +5698,13 @@
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>37</v>
@@ -5710,7 +5713,7 @@
         <v>37</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>37</v>
@@ -5718,10 +5721,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5744,71 +5747,71 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="AG29" t="s" s="2">
         <v>35</v>
       </c>
@@ -5819,19 +5822,19 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>37</v>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5868,19 +5871,19 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5929,7 +5932,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5941,22 +5944,22 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>37</v>
@@ -5964,10 +5967,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5993,10 +5996,10 @@
         <v>48</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6047,7 +6050,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>35</v>
@@ -6056,7 +6059,7 @@
         <v>46</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>37</v>
@@ -6065,7 +6068,7 @@
         <v>37</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>37</v>
@@ -6082,14 +6085,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6108,16 +6111,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6155,19 +6158,19 @@
         <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -6179,13 +6182,13 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>37</v>
@@ -6202,13 +6205,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="B33" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="C33" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>37</v>
@@ -6230,13 +6233,13 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6287,7 +6290,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -6299,7 +6302,7 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -6322,13 +6325,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>37</v>
@@ -6350,13 +6353,13 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6407,7 +6410,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -6419,7 +6422,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -6442,10 +6445,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6468,19 +6471,19 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6505,13 +6508,13 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>37</v>
@@ -6529,7 +6532,7 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>35</v>
@@ -6541,13 +6544,13 @@
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>37</v>
@@ -6556,7 +6559,7 @@
         <v>37</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>37</v>
@@ -6564,10 +6567,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6590,19 +6593,19 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6651,7 +6654,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>35</v>
@@ -6663,13 +6666,13 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>37</v>
@@ -6678,7 +6681,7 @@
         <v>37</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>37</v>
@@ -6686,14 +6689,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6712,16 +6715,16 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6771,7 +6774,7 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>35</v>
@@ -6783,13 +6786,13 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>37</v>
@@ -6798,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>37</v>
@@ -6806,14 +6809,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6832,16 +6835,16 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6891,7 +6894,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6903,13 +6906,13 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>37</v>
@@ -6918,7 +6921,7 @@
         <v>37</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>37</v>
@@ -6926,10 +6929,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6952,13 +6955,13 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7009,7 +7012,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -7021,13 +7024,13 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>37</v>
@@ -7036,7 +7039,7 @@
         <v>37</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>37</v>
@@ -7044,10 +7047,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7070,13 +7073,13 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7127,7 +7130,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -7139,13 +7142,13 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>37</v>
@@ -7154,7 +7157,7 @@
         <v>37</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>37</v>
@@ -7162,10 +7165,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7188,17 +7191,17 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -7247,7 +7250,7 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>35</v>
@@ -7259,13 +7262,13 @@
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>37</v>
@@ -7274,7 +7277,7 @@
         <v>37</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>37</v>
@@ -7282,10 +7285,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7308,19 +7311,19 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -7369,7 +7372,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -7381,22 +7384,22 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>37</v>
@@ -7404,10 +7407,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7433,10 +7436,10 @@
         <v>48</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7487,7 +7490,7 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>35</v>
@@ -7496,7 +7499,7 @@
         <v>46</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>37</v>
@@ -7505,7 +7508,7 @@
         <v>37</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -7522,14 +7525,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7548,16 +7551,16 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7595,19 +7598,19 @@
         <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7619,13 +7622,13 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
@@ -7642,10 +7645,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7668,13 +7671,13 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7701,11 +7704,11 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>37</v>
@@ -7723,7 +7726,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>35</v>
@@ -7732,16 +7735,16 @@
         <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>37</v>
@@ -7750,7 +7753,7 @@
         <v>37</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>37</v>
@@ -7758,10 +7761,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7784,19 +7787,19 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7845,7 +7848,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>35</v>
@@ -7854,16 +7857,16 @@
         <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>37</v>
@@ -7872,7 +7875,7 @@
         <v>37</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>37</v>
@@ -7880,10 +7883,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7906,19 +7909,19 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7943,13 +7946,13 @@
         <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>37</v>
@@ -7967,7 +7970,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>35</v>
@@ -7979,13 +7982,13 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>37</v>
@@ -7994,7 +7997,7 @@
         <v>37</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
@@ -8002,10 +8005,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8028,16 +8031,16 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8087,7 +8090,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -8099,13 +8102,13 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>37</v>
@@ -8114,7 +8117,7 @@
         <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>37</v>
@@ -8122,10 +8125,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8148,13 +8151,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8205,7 +8208,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -8217,13 +8220,13 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>37</v>
@@ -8232,7 +8235,7 @@
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>37</v>
@@ -8240,10 +8243,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8266,19 +8269,19 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8303,13 +8306,13 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>37</v>
@@ -8327,7 +8330,7 @@
         <v>37</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>35</v>
@@ -8339,22 +8342,22 @@
         <v>37</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>37</v>
@@ -8362,10 +8365,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8388,19 +8391,19 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8449,7 +8452,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8461,33 +8464,33 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8510,19 +8513,19 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8571,7 +8574,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8583,22 +8586,22 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>37</v>
@@ -8606,10 +8609,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8632,19 +8635,19 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8693,7 +8696,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8705,22 +8708,22 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>37</v>
@@ -8728,10 +8731,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8757,10 +8760,10 @@
         <v>48</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8811,7 +8814,7 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>35</v>
@@ -8820,7 +8823,7 @@
         <v>46</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>37</v>
@@ -8829,7 +8832,7 @@
         <v>37</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>37</v>
@@ -8846,14 +8849,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8872,16 +8875,16 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8919,19 +8922,19 @@
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8943,13 +8946,13 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>37</v>
@@ -8966,13 +8969,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="B56" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="C56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>37</v>
@@ -8994,13 +8997,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9051,7 +9054,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -9063,7 +9066,7 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -9086,10 +9089,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9112,19 +9115,19 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -9137,7 +9140,7 @@
         <v>37</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>37</v>
@@ -9149,13 +9152,13 @@
         <v>37</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>37</v>
@@ -9173,7 +9176,7 @@
         <v>37</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>35</v>
@@ -9185,13 +9188,13 @@
         <v>37</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>37</v>
@@ -9200,7 +9203,7 @@
         <v>37</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>37</v>
@@ -9208,10 +9211,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9234,16 +9237,16 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9257,7 +9260,7 @@
         <v>37</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>37</v>
@@ -9269,13 +9272,13 @@
         <v>37</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>37</v>
@@ -9293,7 +9296,7 @@
         <v>37</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>35</v>
@@ -9305,13 +9308,13 @@
         <v>37</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>37</v>
@@ -9320,7 +9323,7 @@
         <v>37</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>37</v>
@@ -9328,10 +9331,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9354,19 +9357,19 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9379,7 +9382,7 @@
         <v>37</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>37</v>
@@ -9415,7 +9418,7 @@
         <v>37</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>35</v>
@@ -9427,13 +9430,13 @@
         <v>37</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>37</v>
@@ -9442,7 +9445,7 @@
         <v>37</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>37</v>
@@ -9450,10 +9453,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9476,13 +9479,13 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9497,7 +9500,7 @@
         <v>37</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>37</v>
@@ -9533,7 +9536,7 @@
         <v>37</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9545,13 +9548,13 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>37</v>
@@ -9560,7 +9563,7 @@
         <v>37</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>37</v>
@@ -9568,14 +9571,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9594,13 +9597,13 @@
         <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9615,7 +9618,7 @@
         <v>37</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>37</v>
@@ -9651,7 +9654,7 @@
         <v>37</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>35</v>
@@ -9663,13 +9666,13 @@
         <v>37</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>37</v>
@@ -9678,7 +9681,7 @@
         <v>37</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>37</v>
@@ -9686,14 +9689,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9712,16 +9715,16 @@
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9735,7 +9738,7 @@
         <v>37</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>37</v>
@@ -9771,7 +9774,7 @@
         <v>37</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>35</v>
@@ -9783,13 +9786,13 @@
         <v>37</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>37</v>
@@ -9798,7 +9801,7 @@
         <v>37</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>37</v>
@@ -9806,14 +9809,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9832,13 +9835,13 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9889,7 +9892,7 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>35</v>
@@ -9901,13 +9904,13 @@
         <v>37</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>37</v>
@@ -9916,7 +9919,7 @@
         <v>37</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
@@ -9924,14 +9927,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9950,13 +9953,13 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9971,7 +9974,7 @@
         <v>37</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>37</v>
@@ -10007,7 +10010,7 @@
         <v>37</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>35</v>
@@ -10019,13 +10022,13 @@
         <v>37</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>37</v>
@@ -10034,7 +10037,7 @@
         <v>37</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>37</v>
@@ -10042,10 +10045,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10068,16 +10071,16 @@
         <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10127,7 +10130,7 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>35</v>
@@ -10139,13 +10142,13 @@
         <v>37</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>37</v>
@@ -10154,7 +10157,7 @@
         <v>37</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>37</v>
@@ -10162,10 +10165,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10188,17 +10191,17 @@
         <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -10211,7 +10214,7 @@
         <v>37</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>37</v>
@@ -10247,7 +10250,7 @@
         <v>37</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>35</v>
@@ -10259,13 +10262,13 @@
         <v>37</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>37</v>
@@ -10274,7 +10277,7 @@
         <v>37</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>37</v>
@@ -10282,10 +10285,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10308,17 +10311,17 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -10343,13 +10346,13 @@
         <v>37</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>37</v>
@@ -10367,7 +10370,7 @@
         <v>37</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>35</v>
@@ -10379,22 +10382,22 @@
         <v>37</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>37</v>
@@ -10402,10 +10405,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10428,19 +10431,19 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -10489,7 +10492,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -10501,22 +10504,22 @@
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>37</v>
@@ -10524,10 +10527,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10550,19 +10553,19 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -10611,7 +10614,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -10623,22 +10626,22 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>37</v>
@@ -10646,10 +10649,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10672,19 +10675,19 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10733,7 +10736,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10745,19 +10748,19 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -10768,10 +10771,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10794,13 +10797,13 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10851,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>35</v>
@@ -10860,7 +10863,7 @@
         <v>46</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>37</v>
@@ -10869,7 +10872,7 @@
         <v>37</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>37</v>
@@ -10886,14 +10889,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10912,16 +10915,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10971,7 +10974,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10983,13 +10986,13 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>37</v>
@@ -11006,14 +11009,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11032,19 +11035,19 @@
         <v>47</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -11093,7 +11096,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -11105,13 +11108,13 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>37</v>
@@ -11128,10 +11131,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11154,17 +11157,17 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -11189,13 +11192,13 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
@@ -11213,7 +11216,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -11225,22 +11228,22 @@
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>37</v>
@@ -11248,10 +11251,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11274,17 +11277,17 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11333,7 +11336,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
@@ -11342,25 +11345,25 @@
         <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>37</v>
@@ -11368,10 +11371,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11394,19 +11397,19 @@
         <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11455,7 +11458,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
@@ -11464,25 +11467,25 @@
         <v>36</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>37</v>
@@ -11490,10 +11493,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11516,17 +11519,17 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>37</v>
@@ -11575,7 +11578,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
@@ -11584,25 +11587,25 @@
         <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>37</v>
@@ -11610,10 +11613,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11636,17 +11639,17 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>37</v>
@@ -11671,13 +11674,13 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>37</v>
@@ -11695,7 +11698,7 @@
         <v>37</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>35</v>
@@ -11707,22 +11710,22 @@
         <v>37</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>37</v>
@@ -11730,10 +11733,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11756,17 +11759,17 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>37</v>
@@ -11815,7 +11818,7 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
@@ -11824,25 +11827,25 @@
         <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>37</v>
@@ -11850,10 +11853,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11876,13 +11879,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11933,7 +11936,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
@@ -11945,19 +11948,19 @@
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>37</v>
@@ -11968,10 +11971,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11994,19 +11997,19 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>37</v>
@@ -12055,7 +12058,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -12067,19 +12070,19 @@
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>37</v>
@@ -12090,10 +12093,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12116,13 +12119,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12173,7 +12176,7 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>35</v>
@@ -12182,7 +12185,7 @@
         <v>46</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>37</v>
@@ -12191,7 +12194,7 @@
         <v>37</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>37</v>
@@ -12208,14 +12211,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12234,16 +12237,16 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12293,7 +12296,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -12305,13 +12308,13 @@
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>37</v>
@@ -12328,14 +12331,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12354,19 +12357,19 @@
         <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>37</v>
@@ -12415,7 +12418,7 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>35</v>
@@ -12427,13 +12430,13 @@
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>37</v>
@@ -12450,10 +12453,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12476,19 +12479,19 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>37</v>
@@ -12513,13 +12516,13 @@
         <v>37</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>37</v>
@@ -12537,7 +12540,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>46</v>
@@ -12549,22 +12552,22 @@
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>37</v>
@@ -12572,10 +12575,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12598,19 +12601,19 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>37</v>
@@ -12659,7 +12662,7 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>35</v>
@@ -12671,22 +12674,22 @@
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO86" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>37</v>
@@ -12694,14 +12697,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12720,16 +12723,16 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12779,7 +12782,7 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>35</v>
@@ -12791,22 +12794,22 @@
         <v>37</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>37</v>
@@ -12814,10 +12817,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12843,10 +12846,10 @@
         <v>48</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12897,7 +12900,7 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>35</v>
@@ -12906,7 +12909,7 @@
         <v>46</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>37</v>
@@ -12915,7 +12918,7 @@
         <v>37</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>37</v>
@@ -12932,14 +12935,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12958,16 +12961,16 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13005,19 +13008,19 @@
         <v>37</v>
       </c>
       <c r="AB89" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC89" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>35</v>
@@ -13029,13 +13032,13 @@
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>37</v>
@@ -13052,10 +13055,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13078,16 +13081,16 @@
         <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13137,7 +13140,7 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>35</v>
@@ -13146,16 +13149,16 @@
         <v>46</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>37</v>
@@ -13172,10 +13175,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13198,16 +13201,16 @@
         <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13233,13 +13236,13 @@
         <v>37</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>37</v>
@@ -13257,7 +13260,7 @@
         <v>37</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>35</v>
@@ -13269,13 +13272,13 @@
         <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>37</v>
@@ -13292,10 +13295,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13318,16 +13321,16 @@
         <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13377,7 +13380,7 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>35</v>
@@ -13386,16 +13389,16 @@
         <v>46</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>37</v>
@@ -13412,10 +13415,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13438,16 +13441,16 @@
         <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13497,7 +13500,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>35</v>
@@ -13506,16 +13509,16 @@
         <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>37</v>
@@ -13532,10 +13535,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13558,19 +13561,19 @@
         <v>47</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13619,7 +13622,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>35</v>
@@ -13631,19 +13634,19 @@
         <v>37</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>37</v>
@@ -13654,10 +13657,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13680,19 +13683,19 @@
         <v>47</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>37</v>
@@ -13741,7 +13744,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>35</v>
@@ -13753,19 +13756,19 @@
         <v>37</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>37</v>
@@ -13776,10 +13779,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13802,13 +13805,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13859,7 +13862,7 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>35</v>
@@ -13868,7 +13871,7 @@
         <v>46</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>37</v>
@@ -13877,7 +13880,7 @@
         <v>37</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>37</v>
@@ -13894,14 +13897,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13920,16 +13923,16 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13979,7 +13982,7 @@
         <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>35</v>
@@ -13991,13 +13994,13 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>37</v>
@@ -14014,14 +14017,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14040,19 +14043,19 @@
         <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>37</v>
@@ -14101,7 +14104,7 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>35</v>
@@ -14113,13 +14116,13 @@
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>37</v>
@@ -14136,10 +14139,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14162,16 +14165,16 @@
         <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14221,7 +14224,7 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>46</v>
@@ -14233,22 +14236,22 @@
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>37</v>
@@ -14256,10 +14259,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14282,13 +14285,13 @@
         <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14315,13 +14318,13 @@
         <v>37</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>37</v>
@@ -14339,7 +14342,7 @@
         <v>37</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>46</v>
@@ -14351,19 +14354,19 @@
         <v>37</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-PacienteHackaton.xlsx
+++ b/StructureDefinition-PacienteHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T16:02:56-04:00</t>
+    <t>2023-07-21T15:33:08-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-PacienteHackaton.xlsx
+++ b/StructureDefinition-PacienteHackaton.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3831" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T15:33:08-04:00</t>
+    <t>2023-07-24T10:24:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Within the context of the FHIR RESTful interactions, the resource has an id except for cases like the create and conditional update. Otherwise, the use of the resouce id depends on the given use case.</t>
-  </si>
-  <si>
-    <t>Pac007</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -2547,46 +2544,46 @@
         <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>52</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>35</v>
@@ -2621,10 +2618,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2647,13 +2644,13 @@
         <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>57</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2704,19 +2701,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
         <v>58</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2739,10 +2736,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2765,16 +2762,16 @@
         <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2824,7 +2821,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>35</v>
@@ -2836,7 +2833,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -2859,10 +2856,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2885,16 +2882,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2920,32 +2917,32 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y5" t="s" s="2">
+      <c r="Z5" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Z5" t="s" s="2">
+      <c r="AA5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AA5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AG5" t="s" s="2">
         <v>35</v>
       </c>
@@ -2956,7 +2953,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2979,14 +2976,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3005,16 +3002,16 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3064,25 +3061,25 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI6" t="s" s="2">
+      <c r="AJ6" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>37</v>
@@ -3099,14 +3096,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -3125,16 +3122,16 @@
         <v>37</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3184,7 +3181,7 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>35</v>
@@ -3193,16 +3190,16 @@
         <v>36</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>37</v>
@@ -3219,10 +3216,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3245,13 +3242,13 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -3290,17 +3287,17 @@
         <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>35</v>
@@ -3312,7 +3309,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -3335,13 +3332,13 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C9" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>37</v>
@@ -3363,13 +3360,13 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3420,7 +3417,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>35</v>
@@ -3432,7 +3429,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -3455,10 +3452,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3484,10 +3481,10 @@
         <v>48</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3538,25 +3535,25 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI10" t="s" s="2">
+      <c r="AJ10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>37</v>
@@ -3573,10 +3570,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3599,13 +3596,13 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3644,19 +3641,19 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC11" t="s" s="2">
+      <c r="AF11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>35</v>
@@ -3668,7 +3665,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -3691,10 +3688,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3717,16 +3714,16 @@
         <v>37</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3734,50 +3731,50 @@
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AG12" t="s" s="2">
         <v>46</v>
       </c>
@@ -3794,7 +3791,7 @@
         <v>37</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>37</v>
@@ -3811,10 +3808,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3837,13 +3834,13 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3870,47 +3867,47 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="AJ13" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>37</v>
@@ -3927,13 +3924,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>37</v>
@@ -3955,13 +3952,13 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -4012,7 +4009,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>35</v>
@@ -4024,7 +4021,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -4047,10 +4044,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4076,10 +4073,10 @@
         <v>48</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4130,25 +4127,25 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG15" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
+      <c r="AJ15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>37</v>
@@ -4165,10 +4162,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4191,13 +4188,13 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4236,19 +4233,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>35</v>
@@ -4260,7 +4257,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -4283,10 +4280,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4309,16 +4306,16 @@
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4326,7 +4323,7 @@
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>37</v>
@@ -4368,7 +4365,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>46</v>
@@ -4386,7 +4383,7 @@
         <v>37</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>37</v>
@@ -4403,10 +4400,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4429,13 +4426,13 @@
         <v>37</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4462,11 +4459,11 @@
         <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>37</v>
@@ -4484,25 +4481,25 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>37</v>
@@ -4519,14 +4516,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4545,19 +4542,19 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>37</v>
@@ -4606,7 +4603,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>35</v>
@@ -4618,13 +4615,13 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>37</v>
@@ -4641,10 +4638,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4667,17 +4664,17 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>37</v>
@@ -4726,7 +4723,7 @@
         <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>35</v>
@@ -4738,22 +4735,22 @@
         <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>37</v>
@@ -4761,10 +4758,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4790,10 +4787,10 @@
         <v>48</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4844,25 +4841,25 @@
         <v>37</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
+      <c r="AJ21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>37</v>
@@ -4879,14 +4876,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4905,16 +4902,16 @@
         <v>37</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M22" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N22" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4952,19 +4949,19 @@
         <v>37</v>
       </c>
       <c r="AB22" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>35</v>
@@ -4976,13 +4973,13 @@
         <v>37</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>37</v>
@@ -4999,10 +4996,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5025,19 +5022,19 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>37</v>
@@ -5047,7 +5044,7 @@
         <v>37</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>37</v>
@@ -5062,48 +5059,48 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF23" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AA23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF23" t="s" s="2">
+      <c r="AG23" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>173</v>
-      </c>
       <c r="AM23" t="s" s="2">
         <v>37</v>
       </c>
@@ -5111,7 +5108,7 @@
         <v>37</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>37</v>
@@ -5119,10 +5116,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5145,19 +5142,19 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>37</v>
@@ -5182,58 +5179,58 @@
         <v>37</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y24" t="s" s="2">
+      <c r="Z24" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="Z24" t="s" s="2">
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AA24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF24" t="s" s="2">
+      <c r="AG24" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>37</v>
@@ -5241,10 +5238,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5267,19 +5264,19 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>37</v>
@@ -5292,70 +5289,70 @@
         <v>37</v>
       </c>
       <c r="T25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="U25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>37</v>
@@ -5363,10 +5360,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5389,16 +5386,16 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5412,70 +5409,70 @@
         <v>37</v>
       </c>
       <c r="T26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="U26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
+      <c r="AJ26" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AJ26" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>37</v>
@@ -5483,10 +5480,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5509,13 +5506,13 @@
         <v>47</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5566,34 +5563,34 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>37</v>
@@ -5601,10 +5598,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5627,16 +5624,16 @@
         <v>47</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5686,34 +5683,34 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>37</v>
@@ -5721,10 +5718,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5747,94 +5744,94 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="O29" t="s" s="2">
+      <c r="P29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q29" t="s" s="2">
+      <c r="R29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AN29" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>37</v>
@@ -5845,10 +5842,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5871,19 +5868,19 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>37</v>
@@ -5932,7 +5929,7 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>35</v>
@@ -5944,22 +5941,22 @@
         <v>37</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>37</v>
@@ -5967,10 +5964,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5996,10 +5993,10 @@
         <v>48</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -6050,25 +6047,25 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AJ31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>37</v>
@@ -6085,14 +6082,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -6111,16 +6108,16 @@
         <v>37</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6158,19 +6155,19 @@
         <v>37</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC32" t="s" s="2">
+      <c r="AF32" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>35</v>
@@ -6182,13 +6179,13 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>37</v>
@@ -6205,13 +6202,13 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C33" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>37</v>
@@ -6233,13 +6230,13 @@
         <v>37</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -6290,7 +6287,7 @@
         <v>37</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>35</v>
@@ -6302,7 +6299,7 @@
         <v>37</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>37</v>
@@ -6325,13 +6322,13 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="C34" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>37</v>
@@ -6353,13 +6350,13 @@
         <v>37</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6410,7 +6407,7 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>35</v>
@@ -6422,7 +6419,7 @@
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
@@ -6445,10 +6442,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6471,19 +6468,19 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -6508,58 +6505,58 @@
         <v>37</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF35" t="s" s="2">
+      <c r="AG35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AG35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>37</v>
@@ -6567,10 +6564,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6593,19 +6590,19 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6654,34 +6651,34 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>37</v>
@@ -6689,14 +6686,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6715,16 +6712,16 @@
         <v>47</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6774,34 +6771,34 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO37" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>37</v>
@@ -6809,14 +6806,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6835,16 +6832,16 @@
         <v>47</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6894,7 +6891,7 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>35</v>
@@ -6906,22 +6903,22 @@
         <v>37</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>37</v>
@@ -6929,10 +6926,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6955,13 +6952,13 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7012,7 +7009,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>35</v>
@@ -7024,22 +7021,22 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>37</v>
@@ -7047,10 +7044,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7073,13 +7070,13 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7130,7 +7127,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>35</v>
@@ -7142,22 +7139,22 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO40" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>37</v>
@@ -7165,10 +7162,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7191,17 +7188,17 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>37</v>
@@ -7250,34 +7247,34 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AG41" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>37</v>
@@ -7285,10 +7282,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7311,19 +7308,19 @@
         <v>47</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>37</v>
@@ -7372,7 +7369,7 @@
         <v>37</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>35</v>
@@ -7384,22 +7381,22 @@
         <v>37</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>37</v>
@@ -7407,10 +7404,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7436,10 +7433,10 @@
         <v>48</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7490,25 +7487,25 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI43" t="s" s="2">
+      <c r="AJ43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>37</v>
@@ -7525,14 +7522,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7551,16 +7548,16 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7598,19 +7595,19 @@
         <v>37</v>
       </c>
       <c r="AB44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE44" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC44" t="s" s="2">
+      <c r="AF44" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>35</v>
@@ -7622,13 +7619,13 @@
         <v>37</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>37</v>
@@ -7645,10 +7642,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7671,13 +7668,13 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7704,56 +7701,56 @@
         <v>37</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF45" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AA45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF45" t="s" s="2">
+      <c r="AG45" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI45" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI45" t="s" s="2">
+      <c r="AJ45" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>37</v>
@@ -7761,10 +7758,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7787,19 +7784,19 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7848,34 +7845,34 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL46" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL46" t="s" s="2">
+      <c r="AM46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO46" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>37</v>
@@ -7883,10 +7880,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7909,19 +7906,19 @@
         <v>47</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="N47" t="s" s="2">
+      <c r="O47" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>37</v>
@@ -7946,58 +7943,58 @@
         <v>37</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Z47" t="s" s="2">
+      <c r="AA47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AA47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AG47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
@@ -8005,10 +8002,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8031,16 +8028,16 @@
         <v>47</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8090,7 +8087,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>35</v>
@@ -8102,13 +8099,13 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>37</v>
@@ -8117,7 +8114,7 @@
         <v>37</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>37</v>
@@ -8125,10 +8122,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8151,13 +8148,13 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8208,7 +8205,7 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>35</v>
@@ -8220,13 +8217,13 @@
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>37</v>
@@ -8235,7 +8232,7 @@
         <v>37</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>37</v>
@@ -8243,10 +8240,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8269,19 +8266,19 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>37</v>
@@ -8306,58 +8303,58 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>37</v>
@@ -8365,10 +8362,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8391,19 +8388,19 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -8452,7 +8449,7 @@
         <v>37</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>35</v>
@@ -8464,33 +8461,33 @@
         <v>37</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AO51" t="s" s="2">
+      <c r="AP51" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>372</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8513,19 +8510,19 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>37</v>
@@ -8574,7 +8571,7 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>35</v>
@@ -8586,22 +8583,22 @@
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>37</v>
@@ -8609,10 +8606,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8635,19 +8632,19 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>386</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>37</v>
@@ -8696,7 +8693,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>35</v>
@@ -8708,22 +8705,22 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>37</v>
@@ -8731,10 +8728,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8760,10 +8757,10 @@
         <v>48</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8814,25 +8811,25 @@
         <v>37</v>
       </c>
       <c r="AF54" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI54" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI54" t="s" s="2">
+      <c r="AJ54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>37</v>
@@ -8849,14 +8846,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8875,16 +8872,16 @@
         <v>37</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8922,19 +8919,19 @@
         <v>37</v>
       </c>
       <c r="AB55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE55" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC55" t="s" s="2">
+      <c r="AF55" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>35</v>
@@ -8946,13 +8943,13 @@
         <v>37</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>37</v>
@@ -8969,13 +8966,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>37</v>
@@ -8997,13 +8994,13 @@
         <v>37</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9054,7 +9051,7 @@
         <v>37</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>35</v>
@@ -9066,7 +9063,7 @@
         <v>37</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>37</v>
@@ -9089,10 +9086,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9115,19 +9112,19 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>37</v>
@@ -9140,70 +9137,70 @@
         <v>37</v>
       </c>
       <c r="T57" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="U57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y57" t="s" s="2">
+      <c r="Z57" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z57" t="s" s="2">
+      <c r="AA57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF57" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AA57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF57" t="s" s="2">
+      <c r="AG57" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>37</v>
@@ -9211,10 +9208,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9237,16 +9234,16 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9260,70 +9257,70 @@
         <v>37</v>
       </c>
       <c r="T58" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="U58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y58" t="s" s="2">
+      <c r="Z58" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z58" t="s" s="2">
+      <c r="AA58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF58" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AA58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF58" t="s" s="2">
+      <c r="AG58" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>37</v>
@@ -9331,10 +9328,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9357,19 +9354,19 @@
         <v>47</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N59" t="s" s="2">
-        <v>420</v>
-      </c>
       <c r="O59" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>37</v>
@@ -9382,70 +9379,70 @@
         <v>37</v>
       </c>
       <c r="T59" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF59" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="U59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF59" t="s" s="2">
+      <c r="AG59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>37</v>
@@ -9453,10 +9450,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9479,13 +9476,13 @@
         <v>47</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>426</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9500,43 +9497,43 @@
         <v>37</v>
       </c>
       <c r="T60" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF60" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>35</v>
@@ -9548,22 +9545,22 @@
         <v>37</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>37</v>
@@ -9571,14 +9568,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9597,13 +9594,13 @@
         <v>47</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9618,70 +9615,70 @@
         <v>37</v>
       </c>
       <c r="T61" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF61" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="U61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF61" t="s" s="2">
+      <c r="AG61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>37</v>
@@ -9689,14 +9686,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9715,16 +9712,16 @@
         <v>47</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9738,70 +9735,70 @@
         <v>37</v>
       </c>
       <c r="T62" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF62" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="U62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF62" t="s" s="2">
+      <c r="AG62" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AG62" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>37</v>
@@ -9809,14 +9806,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9835,13 +9832,13 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9892,34 +9889,34 @@
         <v>37</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AG63" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL63" t="s" s="2">
+      <c r="AM63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>37</v>
@@ -9927,14 +9924,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9953,13 +9950,13 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9974,70 +9971,70 @@
         <v>37</v>
       </c>
       <c r="T64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF64" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="U64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF64" t="s" s="2">
+      <c r="AG64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO64" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>37</v>
@@ -10045,10 +10042,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10071,16 +10068,16 @@
         <v>47</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10130,34 +10127,34 @@
         <v>37</v>
       </c>
       <c r="AF65" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL65" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AG65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL65" t="s" s="2">
+      <c r="AM65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>37</v>
@@ -10165,10 +10162,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10191,17 +10188,17 @@
         <v>47</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>37</v>
@@ -10214,70 +10211,70 @@
         <v>37</v>
       </c>
       <c r="T66" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="U66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF66" t="s" s="2">
+      <c r="AG66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO66" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>37</v>
@@ -10285,10 +10282,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10311,17 +10308,17 @@
         <v>37</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L67" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>37</v>
@@ -10346,58 +10343,58 @@
         <v>37</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y67" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="Z67" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="Z67" t="s" s="2">
+      <c r="AA67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AA67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="AM67" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>37</v>
@@ -10405,10 +10402,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10431,19 +10428,19 @@
         <v>37</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="N68" t="s" s="2">
+      <c r="O68" t="s" s="2">
         <v>490</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>491</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>37</v>
@@ -10492,7 +10489,7 @@
         <v>37</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>35</v>
@@ -10504,22 +10501,22 @@
         <v>37</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>37</v>
@@ -10527,10 +10524,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10553,19 +10550,19 @@
         <v>37</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>37</v>
@@ -10614,7 +10611,7 @@
         <v>37</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>35</v>
@@ -10626,22 +10623,22 @@
         <v>37</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL69" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="AM69" t="s" s="2">
+      <c r="AN69" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>37</v>
@@ -10649,10 +10646,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10675,19 +10672,19 @@
         <v>37</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="N70" t="s" s="2">
+      <c r="O70" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>37</v>
@@ -10736,7 +10733,7 @@
         <v>37</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>35</v>
@@ -10748,19 +10745,19 @@
         <v>37</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>509</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>510</v>
-      </c>
       <c r="AM70" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>37</v>
@@ -10771,10 +10768,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10797,13 +10794,13 @@
         <v>37</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10854,25 +10851,25 @@
         <v>37</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI71" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI71" t="s" s="2">
+      <c r="AJ71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>37</v>
@@ -10889,14 +10886,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10915,16 +10912,16 @@
         <v>37</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M72" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N72" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -10974,7 +10971,7 @@
         <v>37</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>35</v>
@@ -10986,13 +10983,13 @@
         <v>37</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>37</v>
@@ -11009,14 +11006,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11035,19 +11032,19 @@
         <v>47</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="N73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O73" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>37</v>
@@ -11096,7 +11093,7 @@
         <v>37</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>35</v>
@@ -11108,13 +11105,13 @@
         <v>37</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>37</v>
@@ -11131,10 +11128,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11157,17 +11154,17 @@
         <v>37</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>37</v>
@@ -11192,14 +11189,14 @@
         <v>37</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y74" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="Z74" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="Z74" t="s" s="2">
-        <v>523</v>
-      </c>
       <c r="AA74" t="s" s="2">
         <v>37</v>
       </c>
@@ -11216,7 +11213,7 @@
         <v>37</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>35</v>
@@ -11228,22 +11225,22 @@
         <v>37</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO74" t="s" s="2">
         <v>524</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>525</v>
       </c>
       <c r="AP74" t="s" s="2">
         <v>37</v>
@@ -11251,10 +11248,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11277,17 +11274,17 @@
         <v>37</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>37</v>
@@ -11336,7 +11333,7 @@
         <v>37</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>35</v>
@@ -11345,25 +11342,25 @@
         <v>46</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>37</v>
@@ -11371,10 +11368,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11397,19 +11394,19 @@
         <v>37</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>535</v>
-      </c>
       <c r="O76" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>37</v>
@@ -11458,7 +11455,7 @@
         <v>37</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>35</v>
@@ -11467,25 +11464,25 @@
         <v>36</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>37</v>
@@ -11493,10 +11490,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11519,17 +11516,17 @@
         <v>37</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>37</v>
@@ -11578,7 +11575,7 @@
         <v>37</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>35</v>
@@ -11587,25 +11584,25 @@
         <v>46</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>37</v>
@@ -11613,10 +11610,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11639,17 +11636,17 @@
         <v>37</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>37</v>
@@ -11674,58 +11671,58 @@
         <v>37</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y78" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="Z78" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z78" t="s" s="2">
+      <c r="AA78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AA78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AM78" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AP78" t="s" s="2">
         <v>37</v>
@@ -11733,10 +11730,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11759,17 +11756,17 @@
         <v>37</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>37</v>
@@ -11818,7 +11815,7 @@
         <v>37</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>35</v>
@@ -11827,25 +11824,25 @@
         <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL79" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO79" t="s" s="2">
         <v>550</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AP79" t="s" s="2">
         <v>37</v>
@@ -11853,10 +11850,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11879,13 +11876,13 @@
         <v>37</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11936,7 +11933,7 @@
         <v>37</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>35</v>
@@ -11948,19 +11945,19 @@
         <v>37</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>37</v>
@@ -11971,10 +11968,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11997,19 +11994,19 @@
         <v>37</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L81" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>559</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>560</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>37</v>
@@ -12058,7 +12055,7 @@
         <v>37</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>35</v>
@@ -12070,19 +12067,19 @@
         <v>37</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL81" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="AM81" t="s" s="2">
+      <c r="AN81" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>37</v>
@@ -12093,10 +12090,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12119,13 +12116,13 @@
         <v>37</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -12176,25 +12173,25 @@
         <v>37</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI82" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI82" t="s" s="2">
+      <c r="AJ82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>37</v>
@@ -12211,14 +12208,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12237,16 +12234,16 @@
         <v>37</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N83" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -12296,7 +12293,7 @@
         <v>37</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>35</v>
@@ -12308,13 +12305,13 @@
         <v>37</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>37</v>
@@ -12331,14 +12328,14 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -12357,19 +12354,19 @@
         <v>47</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M84" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M84" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="N84" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O84" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>37</v>
@@ -12418,7 +12415,7 @@
         <v>37</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>35</v>
@@ -12430,13 +12427,13 @@
         <v>37</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>37</v>
@@ -12453,10 +12450,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12479,19 +12476,19 @@
         <v>37</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L85" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>570</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>37</v>
@@ -12516,14 +12513,14 @@
         <v>37</v>
       </c>
       <c r="X85" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y85" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="Y85" t="s" s="2">
+      <c r="Z85" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="Z85" t="s" s="2">
-        <v>73</v>
-      </c>
       <c r="AA85" t="s" s="2">
         <v>37</v>
       </c>
@@ -12540,7 +12537,7 @@
         <v>37</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>46</v>
@@ -12552,22 +12549,22 @@
         <v>37</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="AM85" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>37</v>
@@ -12575,10 +12572,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12601,19 +12598,19 @@
         <v>37</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L86" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>37</v>
@@ -12662,7 +12659,7 @@
         <v>37</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>35</v>
@@ -12674,22 +12671,22 @@
         <v>37</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN86" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="AM86" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
         <v>581</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>582</v>
       </c>
       <c r="AP86" t="s" s="2">
         <v>37</v>
@@ -12697,14 +12694,14 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12723,16 +12720,16 @@
         <v>37</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>585</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -12782,7 +12779,7 @@
         <v>37</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>35</v>
@@ -12794,22 +12791,22 @@
         <v>37</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO87" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>589</v>
       </c>
       <c r="AP87" t="s" s="2">
         <v>37</v>
@@ -12817,10 +12814,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12846,10 +12843,10 @@
         <v>48</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12900,25 +12897,25 @@
         <v>37</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI88" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI88" t="s" s="2">
+      <c r="AJ88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>37</v>
@@ -12935,14 +12932,14 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -12961,16 +12958,16 @@
         <v>37</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L89" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M89" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N89" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -13008,19 +13005,19 @@
         <v>37</v>
       </c>
       <c r="AB89" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE89" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC89" t="s" s="2">
+      <c r="AF89" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>35</v>
@@ -13032,13 +13029,13 @@
         <v>37</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>37</v>
@@ -13055,10 +13052,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13081,16 +13078,16 @@
         <v>47</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="M90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13140,25 +13137,25 @@
         <v>37</v>
       </c>
       <c r="AF90" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI90" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AG90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AJ90" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>37</v>
@@ -13175,10 +13172,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13201,16 +13198,16 @@
         <v>47</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13236,32 +13233,32 @@
         <v>37</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>602</v>
       </c>
-      <c r="Z91" t="s" s="2">
+      <c r="AA91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF91" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="AA91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>604</v>
-      </c>
       <c r="AG91" t="s" s="2">
         <v>35</v>
       </c>
@@ -13272,13 +13269,13 @@
         <v>37</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>37</v>
@@ -13295,10 +13292,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13321,16 +13318,16 @@
         <v>47</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>608</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13380,25 +13377,25 @@
         <v>37</v>
       </c>
       <c r="AF92" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>609</v>
       </c>
-      <c r="AG92" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI92" t="s" s="2">
+      <c r="AJ92" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL92" t="s" s="2">
         <v>610</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>611</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>37</v>
@@ -13415,10 +13412,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13441,16 +13438,16 @@
         <v>47</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>613</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>615</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13500,7 +13497,7 @@
         <v>37</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>35</v>
@@ -13509,16 +13506,16 @@
         <v>46</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>37</v>
@@ -13535,10 +13532,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13561,19 +13558,19 @@
         <v>47</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>621</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>37</v>
@@ -13622,7 +13619,7 @@
         <v>37</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>35</v>
@@ -13634,19 +13631,19 @@
         <v>37</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>37</v>
@@ -13657,10 +13654,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13683,19 +13680,19 @@
         <v>47</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="L95" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="N95" t="s" s="2">
+      <c r="O95" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>37</v>
@@ -13744,7 +13741,7 @@
         <v>37</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>35</v>
@@ -13756,19 +13753,19 @@
         <v>37</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>37</v>
@@ -13779,10 +13776,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13805,13 +13802,13 @@
         <v>37</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13862,25 +13859,25 @@
         <v>37</v>
       </c>
       <c r="AF96" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI96" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AG96" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI96" t="s" s="2">
+      <c r="AJ96" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL96" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>37</v>
@@ -13897,14 +13894,14 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13923,16 +13920,16 @@
         <v>37</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M97" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="N97" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -13982,7 +13979,7 @@
         <v>37</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>35</v>
@@ -13994,13 +13991,13 @@
         <v>37</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>37</v>
@@ -14017,14 +14014,14 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
@@ -14043,19 +14040,19 @@
         <v>47</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L98" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M98" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M98" t="s" s="2">
-        <v>516</v>
-      </c>
       <c r="N98" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="O98" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="O98" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>37</v>
@@ -14104,7 +14101,7 @@
         <v>37</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>35</v>
@@ -14116,13 +14113,13 @@
         <v>37</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>37</v>
@@ -14139,10 +14136,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14165,16 +14162,16 @@
         <v>47</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="L99" t="s" s="2">
+      <c r="M99" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -14224,7 +14221,7 @@
         <v>37</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>46</v>
@@ -14236,22 +14233,22 @@
         <v>37</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AP99" t="s" s="2">
         <v>37</v>
@@ -14259,10 +14256,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14285,13 +14282,13 @@
         <v>47</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -14318,55 +14315,55 @@
         <v>37</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="Z100" t="s" s="2">
+      <c r="AA100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL100" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="AA100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>637</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>642</v>
-      </c>
       <c r="AM100" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>37</v>

--- a/StructureDefinition-PacienteHackaton.xlsx
+++ b/StructureDefinition-PacienteHackaton.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T10:24:09-04:00</t>
+    <t>2023-07-24T11:34:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
